--- a/web/cucumber/step_definitions/list.xlsx
+++ b/web/cucumber/step_definitions/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Vidya</t>
   </si>
@@ -36,6 +36,9 @@
   <si>
     <t xml:space="preserve">Shambhavi</t>
   </si>
+  <si>
+    <t xml:space="preserve">new entry</t>
+  </si>
 </sst>
 </file>
 
@@ -49,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,15 +134,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:A12"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -166,6 +170,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
